--- a/013_Data regression prediction based on radial basis neural networks/数据集.xlsx
+++ b/013_Data regression prediction based on radial basis neural networks/数据集.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w9629\Documents\MATLAB\Matlab程序集合\基于BP神经网络的数据回归预测\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w9629\Desktop\暂时文件\博客存储\面包多\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B4B3D2-E029-47A5-A47B-19F4FCB27B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA4B204-A171-4EB2-9547-3CAF1A1E54EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -239,21 +239,14 @@
   </si>
   <si>
     <t>输出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,13 +304,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,35 +595,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.08203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="34" width="9.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="16384" width="13.08203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -3338,7 +3307,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
